--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C785FC-F3AA-4453-BE8D-4EC72E8875F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496ECFB-F498-4B37-BA8B-1589358CDF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
-  <si>
-    <t>Phase 1 Title</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -90,9 +69,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Phase 3 Title</t>
-  </si>
-  <si>
     <t>More Project Management Templates</t>
   </si>
   <si>
@@ -124,9 +100,6 @@
   </si>
   <si>
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Phase 4 Title</t>
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
@@ -144,12 +117,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -225,19 +192,91 @@
 Repeat the instructions from cells A8 and A9 whenever you need to.</t>
   </si>
   <si>
-    <t>Maze Game</t>
-  </si>
-  <si>
-    <t>Game Menu</t>
-  </si>
-  <si>
     <t>Team 3: Team Blue Monday</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kevin Toh Zheng Ying</t>
-  </si>
-  <si>
-    <t>Prepared By:</t>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Feature 1: Display Menu</t>
+  </si>
+  <si>
+    <t>Feature 2: Read and load maze from file</t>
+  </si>
+  <si>
+    <t>Feature 4: Play maze game</t>
+  </si>
+  <si>
+    <t>Feature 5: Configure Maze</t>
+  </si>
+  <si>
+    <t>Marcus, Tee Kiat</t>
+  </si>
+  <si>
+    <t>Jun Wu</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Tee Kiat</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>QA for Display Menu</t>
+  </si>
+  <si>
+    <t>QA for Read and load maze from file</t>
+  </si>
+  <si>
+    <t>QA for View Maze</t>
+  </si>
+  <si>
+    <t>Feature 3: View Maze</t>
+  </si>
+  <si>
+    <t>QA for Play maze game</t>
+  </si>
+  <si>
+    <t>QA for Configure Maze</t>
+  </si>
+  <si>
+    <t>Create Project Pipeline</t>
+  </si>
+  <si>
+    <t>Developer Test Cases</t>
+  </si>
+  <si>
+    <t>QA Test Cases</t>
+  </si>
+  <si>
+    <t>Deployment Of Game</t>
+  </si>
+  <si>
+    <t>Assignment Report</t>
+  </si>
+  <si>
+    <t>Project Timeline: Maze Game</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Marcus, Tee Kiat, Jun Wu, Kevin</t>
   </si>
 </sst>
 </file>
@@ -897,6 +936,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -904,21 +958,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1485,11 +1524,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1508,10 +1547,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1522,135 +1561,131 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+        <v>30</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="89">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="86"/>
+        <v>31</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="91"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="86">
         <f>I5</f>
         <v>43850</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f>P5</f>
         <v>43857</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f>W5</f>
         <v>43864</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f>AD5</f>
         <v>43871</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f>AK5</f>
         <v>43878</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f>AR5</f>
         <v>43885</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f>AY5</f>
         <v>43892</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f>BF5</f>
         <v>43899</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43850</v>
@@ -1878,26 +1913,26 @@
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2126,7 +2161,7 @@
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2193,10 +2228,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2204,7 +2239,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H33" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H28" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2266,29 +2301,29 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D9" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="66">
-        <f>Project_Start</f>
-        <v>43850</v>
+        <f>DATE(2020,1,31)</f>
+        <v>43861</v>
       </c>
       <c r="F9" s="66">
-        <f>E9+3</f>
-        <v>43853</v>
+        <f>E9</f>
+        <v>43861</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2349,27 +2384,29 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="72"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="66">
         <f>F9</f>
-        <v>43853</v>
+        <v>43861</v>
       </c>
       <c r="F10" s="66">
-        <f>E10+2</f>
-        <v>43855</v>
+        <f>E10</f>
+        <v>43861</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -2431,24 +2468,26 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="22">
         <v>1</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="22">
-        <v>0.5</v>
       </c>
       <c r="E11" s="66">
         <f>F10</f>
-        <v>43855</v>
+        <v>43861</v>
       </c>
       <c r="F11" s="66">
-        <f>E11+4</f>
-        <v>43859</v>
+        <f>E11</f>
+        <v>43861</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2510,24 +2549,26 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="72"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>48</v>
+      </c>
       <c r="D12" s="22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E12" s="66">
         <f>F11</f>
-        <v>43859</v>
+        <v>43861</v>
       </c>
       <c r="F12" s="66">
-        <f>E12+5</f>
-        <v>43864</v>
+        <f>E12+1</f>
+        <v>43862</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2589,22 +2630,26 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
       <c r="E13" s="66">
-        <f>E10+1</f>
-        <v>43854</v>
+        <f>E10</f>
+        <v>43861</v>
       </c>
       <c r="F13" s="66">
-        <f>E13+2</f>
-        <v>43856</v>
+        <f>E13+1</f>
+        <v>43862</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2665,10 +2710,10 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="24"/>
@@ -2739,24 +2784,26 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="74"/>
+        <v>53</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="67">
-        <f>E13+1</f>
-        <v>43855</v>
+        <f>DATE(2020,1,31)</f>
+        <v>43861</v>
       </c>
       <c r="F15" s="67">
-        <f>E15+4</f>
-        <v>43859</v>
+        <f>E15</f>
+        <v>43861</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2818,24 +2865,26 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="74"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>52</v>
+      </c>
       <c r="D16" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="67">
-        <f>E15+2</f>
-        <v>43857</v>
+        <f>E15</f>
+        <v>43861</v>
       </c>
       <c r="F16" s="67">
-        <f>E16+5</f>
-        <v>43862</v>
+        <f>E16</f>
+        <v>43861</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2897,22 +2946,26 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="27"/>
       <c r="E17" s="67">
         <f>F16</f>
+        <v>43861</v>
+      </c>
+      <c r="F17" s="67">
+        <f>E17+1</f>
         <v>43862</v>
-      </c>
-      <c r="F17" s="67">
-        <f>E17+3</f>
-        <v>43865</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2974,22 +3027,26 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.8</v>
+      </c>
       <c r="E18" s="67">
         <f>E17</f>
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="F18" s="67">
-        <f>E18+2</f>
+        <f>E18+3</f>
         <v>43864</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3051,17 +3108,21 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.8</v>
+      </c>
       <c r="E19" s="67">
         <f>E18</f>
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="F19" s="67">
         <f>E19+3</f>
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
@@ -3127,10 +3188,10 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="58" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="29"/>
@@ -3201,22 +3262,26 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="32"/>
+        <v>59</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
       <c r="E21" s="68">
-        <f>E9+15</f>
-        <v>43865</v>
+        <f>E9</f>
+        <v>43861</v>
       </c>
       <c r="F21" s="68">
-        <f>E21+5</f>
-        <v>43870</v>
+        <f>E21+2</f>
+        <v>43863</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3278,22 +3343,26 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
       <c r="E22" s="68">
-        <f>F21+1</f>
-        <v>43871</v>
+        <f>F21</f>
+        <v>43863</v>
       </c>
       <c r="F22" s="68">
-        <f>E22+4</f>
-        <v>43875</v>
+        <f>E22+1</f>
+        <v>43864</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3353,24 +3422,20 @@
       <c r="BL22" s="44"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="58"/>
-      <c r="B23" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="68">
-        <f>E22+5</f>
-        <v>43876</v>
-      </c>
-      <c r="F23" s="68">
-        <f>E23+5</f>
-        <v>43881</v>
-      </c>
+      <c r="A23" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="H23" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3431,23 +3496,27 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
-      <c r="B24" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="68">
-        <f>F23+1</f>
-        <v>43882</v>
-      </c>
-      <c r="F24" s="68">
-        <f>E24+4</f>
-        <v>43886</v>
+      <c r="B24" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="37">
+        <v>1</v>
+      </c>
+      <c r="E24" s="69">
+        <f>DATE(2020,1,31)</f>
+        <v>43861</v>
+      </c>
+      <c r="F24" s="69">
+        <f>DATE(2020,2,1)</f>
+        <v>43862</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3508,23 +3577,27 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="58"/>
-      <c r="B25" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="68">
-        <f>E23</f>
-        <v>43876</v>
-      </c>
-      <c r="F25" s="68">
-        <f>E25+4</f>
-        <v>43880</v>
+      <c r="B25" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="69">
+        <f>DATE(2020,1,31)</f>
+        <v>43861</v>
+      </c>
+      <c r="F25" s="69">
+        <f>DATE(2020,2,3)</f>
+        <v>43864</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3584,20 +3657,28 @@
       <c r="BL25" s="44"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="69">
+        <f>DATE(2020,2,3)</f>
+        <v>43864</v>
+      </c>
+      <c r="F26" s="69">
+        <f>DATE(2020,2,9)</f>
+        <v>43870</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3657,22 +3738,18 @@
       <c r="BL26" s="44"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>34</v>
-      </c>
+      <c r="A27" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
+      <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3732,461 +3809,95 @@
       <c r="BL27" s="44"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
-      <c r="B28" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
-    </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
-      <c r="B29" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="44"/>
-      <c r="BA29" s="44"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="44"/>
-      <c r="BH29" s="44"/>
-      <c r="BI29" s="44"/>
-      <c r="BJ29" s="44"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="44"/>
-    </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="58"/>
-      <c r="B30" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="44"/>
-      <c r="AV30" s="44"/>
-      <c r="AW30" s="44"/>
-      <c r="AX30" s="44"/>
-      <c r="AY30" s="44"/>
-      <c r="AZ30" s="44"/>
-      <c r="BA30" s="44"/>
-      <c r="BB30" s="44"/>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="44"/>
-      <c r="BH30" s="44"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="44"/>
-      <c r="BK30" s="44"/>
-      <c r="BL30" s="44"/>
-    </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="58"/>
-      <c r="B31" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="44"/>
-    </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
+      <c r="A28" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="44"/>
-      <c r="BH32" s="44"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="44"/>
-      <c r="BK32" s="44"/>
-      <c r="BL32" s="44"/>
-    </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="46"/>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="14"/>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46"/>
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="46"/>
+      <c r="BB28" s="46"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="46"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="46"/>
+    </row>
+    <row r="29" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4194,13 +3905,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4214,12 +3920,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL33">
+  <conditionalFormatting sqref="I5:BL28">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL33">
+  <conditionalFormatting sqref="I7:BL28">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4238,9 +3944,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4257,7 +3960,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4280,79 +3983,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="52" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496ECFB-F498-4B37-BA8B-1589358CDF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BBEB67-7B0A-4229-9CB8-8B33F52D0057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Create Project Pipeline</t>
   </si>
   <si>
-    <t>Developer Test Cases</t>
-  </si>
-  <si>
     <t>QA Test Cases</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t>Everyone</t>
-  </si>
-  <si>
-    <t>Marcus, Tee Kiat, Jun Wu, Kevin</t>
   </si>
 </sst>
 </file>
@@ -939,6 +933,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -951,13 +952,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1524,33 +1518,33 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL31"/>
+  <dimension ref="A1:BL30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.68359375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="32.1015625" customWidth="1"/>
+    <col min="3" max="3" width="30.68359375" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.41796875" customWidth="1"/>
+    <col min="7" max="7" width="2.68359375" customWidth="1"/>
+    <col min="8" max="8" width="6.1015625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5234375" customWidth="1"/>
+    <col min="69" max="70" width="10.3125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1559,7 +1553,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
@@ -1568,124 +1562,124 @@
       </c>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89">
+      <c r="D3" s="87"/>
+      <c r="E3" s="92">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="F3" s="89"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="92"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="85"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>43850</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>43857</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>43864</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>43871</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>43878</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>43885</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>43892</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>43899</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43850</v>
@@ -1911,7 +1905,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="59" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2153,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="58" t="s">
         <v>28</v>
       </c>
@@ -2226,7 +2220,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="59" t="s">
         <v>34</v>
       </c>
@@ -2239,7 +2233,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H28" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H27" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2299,7 +2293,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="59" t="s">
         <v>35</v>
       </c>
@@ -2382,7 +2376,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="59" t="s">
         <v>36</v>
       </c>
@@ -2465,7 +2459,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
         <v>56</v>
@@ -2546,7 +2540,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
         <v>45</v>
@@ -2627,7 +2621,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
         <v>46</v>
@@ -2708,7 +2702,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="59" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +2775,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
         <v>53</v>
@@ -2862,7 +2856,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
         <v>54</v>
@@ -2943,7 +2937,7 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
         <v>55</v>
@@ -3024,7 +3018,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
         <v>57</v>
@@ -3105,7 +3099,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
         <v>58</v>
@@ -3186,7 +3180,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="58" t="s">
         <v>25</v>
       </c>
@@ -3259,7 +3253,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
         <v>59</v>
@@ -3340,10 +3334,10 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>49</v>
@@ -3421,7 +3415,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="58" t="s">
         <v>25</v>
       </c>
@@ -3494,29 +3488,29 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="58"/>
       <c r="B24" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D24" s="37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="69">
+        <f>DATE(2020,1,29)</f>
+        <v>43859</v>
+      </c>
+      <c r="F24" s="69">
         <f>DATE(2020,1,31)</f>
         <v>43861</v>
-      </c>
-      <c r="F24" s="69">
-        <f>DATE(2020,2,1)</f>
-        <v>43862</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3575,29 +3569,29 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="58"/>
       <c r="B25" s="83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D25" s="37">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="69">
-        <f>DATE(2020,1,31)</f>
-        <v>43861</v>
-      </c>
-      <c r="F25" s="69">
         <f>DATE(2020,2,3)</f>
         <v>43864</v>
+      </c>
+      <c r="F25" s="69">
+        <f>DATE(2020,2,9)</f>
+        <v>43870</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3656,29 +3650,19 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58"/>
-      <c r="B26" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="69">
-        <f>DATE(2020,2,3)</f>
-        <v>43864</v>
-      </c>
-      <c r="F26" s="69">
-        <f>DATE(2020,2,9)</f>
-        <v>43870</v>
-      </c>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17">
+      <c r="H26" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3737,167 +3721,91 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="str">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
-    </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="46"/>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
-      <c r="BA28" s="46"/>
-      <c r="BB28" s="46"/>
-      <c r="BC28" s="46"/>
-      <c r="BD28" s="46"/>
-      <c r="BE28" s="46"/>
-      <c r="BF28" s="46"/>
-      <c r="BG28" s="46"/>
-      <c r="BH28" s="46"/>
-      <c r="BI28" s="46"/>
-      <c r="BJ28" s="46"/>
-      <c r="BK28" s="46"/>
-      <c r="BL28" s="46"/>
-    </row>
-    <row r="29" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="14"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="15"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="46"/>
+      <c r="AZ27" s="46"/>
+      <c r="BA27" s="46"/>
+      <c r="BB27" s="46"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="46"/>
+      <c r="BG27" s="46"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="46"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="46"/>
+    </row>
+    <row r="28" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="14"/>
+      <c r="F29" s="60"/>
+    </row>
+    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -3905,8 +3813,13 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D28">
+  <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3920,12 +3833,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL28">
+  <conditionalFormatting sqref="I5:BL27">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL28">
+  <conditionalFormatting sqref="I7:BL27">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3960,7 +3873,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D28</xm:sqref>
+          <xm:sqref>D7:D27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3974,86 +3887,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.1015625" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.1015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.5">
       <c r="A9" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.5">
       <c r="A12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A14" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.5">
       <c r="A16" s="53" t="s">
         <v>16</v>
       </c>

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BBEB67-7B0A-4229-9CB8-8B33F52D0057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB9453A-0DF0-4333-A5D7-F75F62A4DA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
-    <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
@@ -20,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -51,9 +50,6 @@
 TO</t>
   </si>
   <si>
-    <t>Project Management Templates</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -67,53 +63,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>More Project Management Templates</t>
-  </si>
-  <si>
-    <t>About This Template</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>Additional Help</t>
-  </si>
-  <si>
-    <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
-  </si>
-  <si>
-    <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
-  </si>
-  <si>
-    <t>How to Use the Simple Gantt Chart</t>
-  </si>
-  <si>
-    <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>There are 2 worksheets in this workbook. 
-TimeSheet
-About
-The instructions for each worksheet are in the A column starting in cell A1 of each worksheet. They are written with hidden text. Each step guides you through the information in that row. Each subsequent step continues in cell A2, A3, and so on, unless otherwise explicitly directed. For example, instruction text might say "continue to cell A6" for the next step. 
-This hidden text will not print.
-To remove these instructions from the worksheet, simply delete column A.</t>
-  </si>
-  <si>
-    <t>Guide for Screen Readers</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -284,7 +233,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,49 +347,6 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -665,7 +571,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -688,7 +594,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -825,39 +731,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -930,8 +808,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
@@ -940,18 +830,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1194,62 +1072,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Vertex42 logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1520,31 +1342,31 @@
   </sheetPr>
   <dimension ref="A1:BL30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.68359375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="32.1015625" customWidth="1"/>
-    <col min="3" max="3" width="30.68359375" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.41796875" customWidth="1"/>
-    <col min="7" max="7" width="2.68359375" customWidth="1"/>
-    <col min="8" max="8" width="6.1015625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5234375" customWidth="1"/>
-    <col min="69" max="70" width="10.3125"/>
+    <col min="1" max="1" width="2.6640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>63</v>
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1553,133 +1375,133 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="61"/>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="51"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="86" t="s">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="92">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="79"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="87"/>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="81"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="76">
         <f>I5</f>
         <v>43850</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f>P5</f>
         <v>43857</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f>W5</f>
         <v>43864</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f>AD5</f>
         <v>43871</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f>AK5</f>
         <v>43878</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f>AR5</f>
         <v>43885</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f>AY5</f>
         <v>43892</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f>BF5</f>
         <v>43899</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43850</v>
@@ -1905,12 +1727,12 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="59" t="s">
-        <v>33</v>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>3</v>
@@ -1919,14 +1741,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2153,11 +1975,11 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="62"/>
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="52"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2220,14 +2042,14 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="59" t="s">
-        <v>34</v>
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="71"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="61"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
@@ -2293,24 +2115,24 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>47</v>
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="56">
         <f>DATE(2020,1,31)</f>
         <v>43861</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="56">
         <f>E9</f>
         <v>43861</v>
       </c>
@@ -2376,24 +2198,24 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="56">
         <f>F9</f>
         <v>43861</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="56">
         <f>E10</f>
         <v>43861</v>
       </c>
@@ -2459,22 +2281,22 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="58"/>
-      <c r="B11" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>50</v>
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48"/>
+      <c r="B11" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="56">
         <f>F10</f>
         <v>43861</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="56">
         <f>E11</f>
         <v>43861</v>
       </c>
@@ -2540,22 +2362,22 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="58"/>
-      <c r="B12" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>48</v>
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="48"/>
+      <c r="B12" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="56">
         <f>F11</f>
         <v>43861</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="56">
         <f>E12+1</f>
         <v>43862</v>
       </c>
@@ -2621,22 +2443,22 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="58"/>
-      <c r="B13" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>49</v>
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48"/>
+      <c r="B13" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="56">
         <f>E10</f>
         <v>43861</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="56">
         <f>E13+1</f>
         <v>43862</v>
       </c>
@@ -2702,14 +2524,14 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="59" t="s">
-        <v>37</v>
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="73"/>
+        <v>25</v>
+      </c>
+      <c r="C14" s="63"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
@@ -2775,22 +2597,22 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="59"/>
-      <c r="B15" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>52</v>
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49"/>
+      <c r="B15" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="57">
         <f>DATE(2020,1,31)</f>
         <v>43861</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="57">
         <f>E15</f>
         <v>43861</v>
       </c>
@@ -2856,22 +2678,22 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="58"/>
-      <c r="B16" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>52</v>
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="48"/>
+      <c r="B16" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="57">
         <f>E15</f>
         <v>43861</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="57">
         <f>E16</f>
         <v>43861</v>
       </c>
@@ -2937,22 +2759,22 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="58"/>
-      <c r="B17" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>52</v>
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="57">
         <f>F16</f>
         <v>43861</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="57">
         <f>E17+1</f>
         <v>43862</v>
       </c>
@@ -3018,22 +2840,22 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="58"/>
-      <c r="B18" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>52</v>
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48"/>
+      <c r="B18" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="27">
         <v>0.8</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="57">
         <f>E17</f>
         <v>43861</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="57">
         <f>E18+3</f>
         <v>43864</v>
       </c>
@@ -3099,22 +2921,22 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="58"/>
-      <c r="B19" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>52</v>
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48"/>
+      <c r="B19" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="27">
         <v>0.8</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="57">
         <f>E18</f>
         <v>43861</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="57">
         <f>E19+3</f>
         <v>43864</v>
       </c>
@@ -3180,14 +3002,14 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="58" t="s">
-        <v>25</v>
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="75"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="65"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
@@ -3253,22 +3075,22 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="58"/>
-      <c r="B21" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>49</v>
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="48"/>
+      <c r="B21" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="32">
         <v>1</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="58">
         <f>E9</f>
         <v>43861</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="58">
         <f>E21+2</f>
         <v>43863</v>
       </c>
@@ -3334,22 +3156,22 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="58"/>
-      <c r="B22" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>49</v>
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="48"/>
+      <c r="B22" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="32">
         <v>1</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="58">
         <f>F21</f>
         <v>43863</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="58">
         <f>E22+1</f>
         <v>43864</v>
       </c>
@@ -3415,14 +3237,14 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="58" t="s">
-        <v>25</v>
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="77"/>
+        <v>27</v>
+      </c>
+      <c r="C23" s="67"/>
       <c r="D23" s="34"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
@@ -3488,22 +3310,22 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="58"/>
-      <c r="B24" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>52</v>
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="48"/>
+      <c r="B24" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="37">
         <v>0.8</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="59">
         <f>DATE(2020,1,29)</f>
         <v>43859</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F24" s="59">
         <f>DATE(2020,1,31)</f>
         <v>43861</v>
       </c>
@@ -3569,22 +3391,22 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="58"/>
-      <c r="B25" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>64</v>
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="48"/>
+      <c r="B25" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="37">
         <v>0.1</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="59">
         <f>DATE(2020,2,3)</f>
         <v>43864</v>
       </c>
-      <c r="F25" s="69">
+      <c r="F25" s="59">
         <f>DATE(2020,2,9)</f>
         <v>43870</v>
       </c>
@@ -3650,15 +3472,15 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="79"/>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3721,9 +3543,9 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="59" t="s">
-        <v>26</v>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>0</v>
@@ -3794,18 +3616,23 @@
       <c r="BK27" s="46"/>
       <c r="BL27" s="46"/>
     </row>
-    <row r="28" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="14"/>
-      <c r="F29" s="60"/>
+      <c r="F29" s="50"/>
     </row>
-    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -3813,11 +3640,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">
@@ -3879,107 +3701,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="87.1015625" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.1015625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A4" s="52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A8" s="52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.5">
-      <c r="A9" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A11" s="52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.5">
-      <c r="A12" s="53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="A14" s="52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.5">
-      <c r="A16" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
 </file>
--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB9453A-0DF0-4333-A5D7-F75F62A4DA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFA508-AAAE-4CC0-AF09-764648E03DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>QA Test Cases</t>
   </si>
   <si>
-    <t>Deployment Of Game</t>
-  </si>
-  <si>
     <t>Assignment Report</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>Continous Deployment Of Game</t>
   </si>
 </sst>
 </file>
@@ -811,6 +811,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -823,13 +830,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1343,8 +1343,8 @@
   <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT23" sqref="AT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1389,119 +1389,119 @@
         <v>15</v>
       </c>
       <c r="B3" s="55"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79">
+      <c r="D3" s="77"/>
+      <c r="E3" s="82">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="F3" s="79"/>
+      <c r="F3" s="82"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="75"/>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="79">
         <f>I5</f>
         <v>43850</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="76">
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79">
         <f>P5</f>
         <v>43857</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="76">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79">
         <f>W5</f>
         <v>43864</v>
       </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76">
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="79">
         <f>AD5</f>
         <v>43871</v>
       </c>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="76">
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="79">
         <f>AK5</f>
         <v>43878</v>
       </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="76">
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79">
         <f>AR5</f>
         <v>43885</v>
       </c>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="76">
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="79">
         <f>AY5</f>
         <v>43892</v>
       </c>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="76">
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <f>BF5</f>
         <v>43899</v>
       </c>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="78"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43850</v>
@@ -2609,12 +2609,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="57">
-        <f>DATE(2020,1,31)</f>
-        <v>43861</v>
+        <f>DATE(2020,2,1)</f>
+        <v>43862</v>
       </c>
       <c r="F15" s="57">
         <f>E15</f>
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
@@ -2691,11 +2691,11 @@
       </c>
       <c r="E16" s="57">
         <f>E15</f>
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="F16" s="57">
         <f>E16</f>
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
@@ -2771,12 +2771,12 @@
         <v>1</v>
       </c>
       <c r="E17" s="57">
-        <f>F16</f>
-        <v>43861</v>
+        <f>F16+1</f>
+        <v>43863</v>
       </c>
       <c r="F17" s="57">
         <f>E17+1</f>
-        <v>43862</v>
+        <v>43864</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
@@ -2849,20 +2849,20 @@
         <v>37</v>
       </c>
       <c r="D18" s="27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="57">
-        <f>E17</f>
-        <v>43861</v>
+        <f>F17</f>
+        <v>43864</v>
       </c>
       <c r="F18" s="57">
-        <f>E18+3</f>
-        <v>43864</v>
+        <f>E18+1</f>
+        <v>43865</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -2930,20 +2930,20 @@
         <v>37</v>
       </c>
       <c r="D19" s="27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="57">
-        <f>E18</f>
-        <v>43861</v>
+        <f>F18</f>
+        <v>43865</v>
       </c>
       <c r="F19" s="57">
-        <f>E19+3</f>
-        <v>43864</v>
+        <f>E19+1</f>
+        <v>43866</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3159,7 +3159,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48"/>
       <c r="B22" s="72" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" s="66" t="s">
         <v>34</v>
@@ -3172,13 +3172,13 @@
         <v>43863</v>
       </c>
       <c r="F22" s="58">
-        <f>E22+1</f>
-        <v>43864</v>
+        <f>E22+4</f>
+        <v>43867</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3319,20 +3319,20 @@
         <v>37</v>
       </c>
       <c r="D24" s="37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="59">
-        <f>DATE(2020,1,29)</f>
-        <v>43859</v>
+        <f>DATE(2020,2,1)</f>
+        <v>43862</v>
       </c>
       <c r="F24" s="59">
-        <f>DATE(2020,1,31)</f>
-        <v>43861</v>
+        <f>DATE(2020,2,5)</f>
+        <v>43866</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3394,10 +3394,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="48"/>
       <c r="B25" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="37">
         <v>0.1</v>
@@ -3628,11 +3628,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -3640,6 +3635,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFA508-AAAE-4CC0-AF09-764648E03DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861EEFCE-8E5A-4AC1-82FD-8B825D712D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,6 +811,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -818,18 +830,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1344,7 +1344,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT23" sqref="AT23"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1389,119 +1389,119 @@
         <v>15</v>
       </c>
       <c r="B3" s="55"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <f>DATE(2020,1,20)</f>
         <v>43850</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="75"/>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="76">
         <f>I5</f>
         <v>43850</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f>P5</f>
         <v>43857</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="79">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f>W5</f>
         <v>43864</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="79">
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f>AD5</f>
         <v>43871</v>
       </c>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="79">
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f>AK5</f>
         <v>43878</v>
       </c>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="79">
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f>AR5</f>
         <v>43885</v>
       </c>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="79">
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f>AY5</f>
         <v>43892</v>
       </c>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="79">
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f>BF5</f>
         <v>43899</v>
       </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="81"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43850</v>
@@ -3400,7 +3400,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="37">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E25" s="59">
         <f>DATE(2020,2,3)</f>
@@ -3628,6 +3628,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -3635,11 +3640,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="14">
@@ -3675,7 +3675,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
